--- a/ontogeny/La Brea Bison.xlsx
+++ b/ontogeny/La Brea Bison.xlsx
@@ -5,13 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Tibia" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Femur" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Radius" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Humerus" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Femur" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Tibia" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Humerus" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Radius" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,21 +25,81 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="90">
   <si>
+    <t xml:space="preserve">number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">circumference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">front to back</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transverse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">???</t>
+  </si>
+  <si>
+    <t xml:space="preserve">??? 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC6028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">???3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">???4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,T-22,9'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D13,15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC6038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4,C-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4,A-4,12-20_279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4,F-4+5,18-1/2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-E-4+5-20-1\2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4B521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACAD (pit 4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4,C-3,12_1/2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">???5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC6024</t>
+  </si>
+  <si>
     <t xml:space="preserve">cat num</t>
   </si>
   <si>
-    <t xml:space="preserve">length</t>
-  </si>
-  <si>
-    <t xml:space="preserve">circumference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">front to back</t>
-  </si>
-  <si>
-    <t xml:space="preserve">transverse</t>
-  </si>
-  <si>
     <t xml:space="preserve">Y6805</t>
   </si>
   <si>
@@ -133,64 +193,70 @@
     <t xml:space="preserve">HC 6019</t>
   </si>
   <si>
-    <t xml:space="preserve">number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">???</t>
-  </si>
-  <si>
-    <t xml:space="preserve">??? 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC6028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">???3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">???4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,T-22,9'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D13,15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC6038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,C-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,A-4,12-20_279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,F-4+5,18-1/2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-E-4+5-20-1\2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4B521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACAD (pit 4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,C-3,12_1/2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">???5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC6024</t>
+    <t xml:space="preserve">LN(length)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LN(circumf)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pit 4 left incomplete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pit 4 left humerus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pit4 4,B-5,13-15 230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pit 4 (4,B-5.19)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pit 4y661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pit 4 (4,E-4+5,18)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pit 4 (4,B-5,18)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pit 4( 4,A-5,15 1/2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pit 4 Juvenille</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pit 4 juvenille</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pit 4 J.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pit 4 J.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pit 13 incomplete left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pit 13 LACMHC 64388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pit 16 (15-17 1/2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC 6023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pit 60 (8-9' 374)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y6659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pit P.D no data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pit 3 Left</t>
   </si>
   <si>
     <t xml:space="preserve">Cat number</t>
@@ -227,72 +293,6 @@
   </si>
   <si>
     <t xml:space="preserve">pit 4 g&amp;h-2+3,8-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LN(length)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LN(circumf)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pit 4 left incomplete</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pit 4 left humerus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pit4 4,B-5,13-15 230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pit 4 (4,B-5.19)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pit 4y661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pit 4 (4,E-4+5,18)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pit 4 (4,B-5,18)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pit 4( 4,A-5,15 1/2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pit 4 Juvenille</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pit 4 juvenille</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pit 4 J.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pit 4 J.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pit 13 incomplete left</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pit 13 LACMHC 64388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pit 16 (15-17 1/2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC 6023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pit 60 (8-9' 374)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">y6659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pit P.D no data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pit 3 Left</t>
   </si>
 </sst>
 </file>
@@ -477,7 +477,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -889,11 +889,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="23827322"/>
-        <c:axId val="72678872"/>
+        <c:axId val="13949133"/>
+        <c:axId val="63099843"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="23827322"/>
+        <c:axId val="13949133"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -967,12 +967,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72678872"/>
+        <c:crossAx val="63099843"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="72678872"/>
+        <c:axId val="63099843"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="4"/>
@@ -1047,7 +1047,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="23827322"/>
+        <c:crossAx val="13949133"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1085,9 +1085,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>444240</xdr:colOff>
+      <xdr:colOff>443880</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>20880</xdr:rowOff>
+      <xdr:rowOff>20520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1095,8 +1095,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10927440" y="2832120"/>
-        <a:ext cx="9230040" cy="5009400"/>
+        <a:off x="8687160" y="2832120"/>
+        <a:ext cx="7225200" cy="5009040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1114,15 +1114,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1:E1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.54655870445344"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.44897959183673"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1143,1193 +1143,797 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>681221</v>
+      <c r="A2" s="0" t="s">
+        <v>5</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>217</v>
+        <v>250</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>33.2</v>
+        <v>31.35</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>36.2</v>
+        <v>30.59</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="0" t="n">
+        <v>165</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>111</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>35.13</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>30.56</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="0" t="n">
         <v>355</v>
       </c>
-      <c r="C3" s="0" t="n">
-        <v>162</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>43.6</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>65559</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>332</v>
-      </c>
       <c r="C4" s="0" t="n">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>45.2</v>
+        <v>56.08</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>48.9</v>
+        <v>52.56</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>65574</v>
+      <c r="A5" s="0" t="s">
+        <v>9</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>266</v>
+        <v>235</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>42.5</v>
+        <v>38.19</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>32.8</v>
+        <v>35.85</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>65575</v>
+      <c r="A6" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>243</v>
+        <v>155</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>35.9</v>
+        <v>21.71</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>29.7</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>65576</v>
+      <c r="A7" s="0" t="s">
+        <v>11</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>224</v>
+        <v>156</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>33.7</v>
+        <v>28.31</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>28.1</v>
+        <v>23.55</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
-        <v>665577</v>
+        <v>65243</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>190</v>
+        <v>353</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>97</v>
+        <v>165</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>30.2</v>
+        <v>54.34</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>26.6</v>
+        <v>50.39</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
-        <v>65578</v>
+        <v>68536</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>207</v>
+        <v>375</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>99</v>
+        <v>185</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>31.7</v>
+        <v>63.28</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>28.6</v>
+        <v>55.19</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
-        <v>65579</v>
+        <v>65242</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>187</v>
+        <v>337</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>86</v>
+        <v>178</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>26.4</v>
+        <v>58.53</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>23.9</v>
+        <v>52.12</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
-        <v>65580</v>
+      <c r="A11" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>26.3</v>
+        <v>28.48</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>24.2</v>
+        <v>25.51</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
-        <v>65581</v>
+      <c r="A12" s="0" t="s">
+        <v>13</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>170</v>
+        <v>260</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>27.6</v>
+        <v>42.95</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>25.4</v>
+        <v>35.02</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
-        <v>65582</v>
+      <c r="A13" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>188</v>
+        <v>362</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>82</v>
+        <v>160</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>26.7</v>
+        <v>56.41</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>23.7</v>
+        <v>47.16</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
-        <v>65583</v>
+      <c r="A14" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>193</v>
+        <v>257</v>
       </c>
       <c r="C14" s="0" t="n">
+        <v>118</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>41.22</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>32.65</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>330</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>153</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>52.78</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>43.88</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>212</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>97</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>31.91</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>27.54</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>182</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>104</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>34.47</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>29.01</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>186</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>101</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>33.69</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>28.61</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>164</v>
+      </c>
+      <c r="C19" s="0" t="n">
         <v>91</v>
       </c>
-      <c r="D14" s="0" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>26.6</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
-        <v>65584</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>209</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
-        <v>65585</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>224</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>103</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>27.2</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
-        <v>65586</v>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>222</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>99</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>27.9</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
-        <v>65587</v>
-      </c>
-      <c r="B18" s="0" t="n">
-        <v>215</v>
-      </c>
-      <c r="C18" s="0" t="n">
-        <v>97</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>25.5</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
-        <v>65588</v>
-      </c>
-      <c r="B19" s="0" t="n">
-        <v>203</v>
-      </c>
-      <c r="C19" s="0" t="n">
-        <v>94</v>
-      </c>
       <c r="D19" s="0" t="n">
-        <v>30.2</v>
+        <v>29.83</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>25.3</v>
+        <v>24.88</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
-        <v>65590</v>
+      <c r="A20" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>211</v>
+        <v>168</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>31.3</v>
+        <v>28.71</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>26</v>
+        <v>24.23</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
-        <v>65591</v>
+      <c r="A21" s="0" t="s">
+        <v>22</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>205</v>
+        <v>165</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>29.8</v>
+        <v>29.86</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>24.9</v>
+        <v>25.83</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
-        <v>65702</v>
+        <v>65359</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>208</v>
+        <v>165</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>34.8</v>
+        <v>34.61</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>27.6</v>
+        <v>29.82</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
-        <v>65596</v>
+        <v>65356</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>30.1</v>
+        <v>31.43</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>23.7</v>
+        <v>27.97</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>6</v>
+      <c r="A24" s="0" t="n">
+        <v>65340</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>355</v>
+        <v>209</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>173</v>
+        <v>98</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>59.2</v>
+        <v>34.2</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>41.5</v>
+        <v>26.67</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>7</v>
+      <c r="A25" s="0" t="n">
+        <v>65339</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>360</v>
+        <v>212</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>168</v>
+        <v>106</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>63.3</v>
+        <v>33.96</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>50.9</v>
+        <v>28.63</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>8</v>
+      <c r="A26" s="0" t="n">
+        <v>65341</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>365</v>
+        <v>180</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>178</v>
+        <v>84</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>51.9</v>
+        <v>27.41</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>57</v>
+        <v>23.59</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>9</v>
+      <c r="A27" s="0" t="n">
+        <v>65343</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>367</v>
+        <v>164</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>185</v>
+        <v>94</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>63</v>
+        <v>29.08</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>55.8</v>
+        <v>27.05</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>10</v>
+      <c r="A28" s="0" t="n">
+        <v>65344</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>328</v>
+        <v>175</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>161</v>
+        <v>90</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>54.5</v>
+        <v>27.34</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>46.7</v>
+        <v>24.75</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
-        <v>65650</v>
+        <v>65345</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>280</v>
+        <v>181</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>44.2</v>
+        <v>30.34</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>35.1</v>
+        <v>25.87</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
-        <v>65652</v>
+        <v>65329</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>203</v>
+        <v>265</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>33.1</v>
+        <v>42.99</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>28.4</v>
+        <v>37.41</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
-        <v>65653</v>
+        <v>65330</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>214</v>
+        <v>180</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>30.3</v>
+        <v>26.37</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>26</v>
+        <v>24.95</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
-        <v>65654</v>
+        <v>65331</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>25.4</v>
+        <v>30.19</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>27.2</v>
+        <v>26.75</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
-        <v>65655</v>
+        <v>65333</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>25.4</v>
+        <v>30.17</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>26.9</v>
+        <v>39.21</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
-        <v>65658</v>
+        <v>65334</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>202</v>
+        <v>155</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>27.3</v>
+        <v>29.41</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>22.6</v>
+        <v>26.9</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>11</v>
+      <c r="A35" s="0" t="n">
+        <v>65336</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>395</v>
+        <v>169</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>178</v>
+        <v>91</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>60.1</v>
+        <v>28.7</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>50</v>
+        <v>26.54</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>12</v>
+      <c r="A36" s="0" t="n">
+        <v>65335</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>352</v>
+        <v>158</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>171</v>
+        <v>78</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>54.7</v>
+        <v>24.18</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>49</v>
+        <v>23.24</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>13</v>
+      <c r="A37" s="0" t="n">
+        <v>65350</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>335</v>
+        <v>150</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>151</v>
+        <v>94</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>47</v>
+        <v>3059</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>48.4</v>
+        <v>27.24</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>14</v>
+      <c r="A38" s="0" t="n">
+        <v>65481</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>315</v>
+        <v>160</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>156</v>
+        <v>91</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>43.6</v>
+        <v>29.81</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>49.5</v>
+        <v>25.9</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>15</v>
+      <c r="A39" s="0" t="n">
+        <v>65482</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>308</v>
+        <v>155</v>
       </c>
       <c r="C39" s="0" t="n">
+        <v>91</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>28.87</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>65483</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>165</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>30.38</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>65485</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>184</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>108</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>30.73</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <v>65478</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>275</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>129</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>41.61</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
+        <v>65479</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>248</v>
+      </c>
+      <c r="C43" s="0" t="n">
         <v>137</v>
       </c>
-      <c r="D39" s="0" t="n">
-        <v>36.4</v>
-      </c>
-      <c r="E39" s="0" t="n">
-        <v>46.5</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B40" s="0" t="n">
-        <v>266</v>
-      </c>
-      <c r="C40" s="0" t="n">
-        <v>121</v>
-      </c>
-      <c r="D40" s="0" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="E40" s="0" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B41" s="0" t="n">
-        <v>234</v>
-      </c>
-      <c r="C41" s="0" t="n">
-        <v>110</v>
-      </c>
-      <c r="D41" s="0" t="n">
-        <v>35.3</v>
-      </c>
-      <c r="E41" s="0" t="n">
-        <v>32.5</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B42" s="0" t="n">
-        <v>250</v>
-      </c>
-      <c r="C42" s="0" t="n">
-        <v>92</v>
-      </c>
-      <c r="D42" s="0" t="n">
-        <v>25.2</v>
-      </c>
-      <c r="E42" s="0" t="n">
-        <v>29.2</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B43" s="0" t="n">
-        <v>351</v>
-      </c>
-      <c r="C43" s="0" t="n">
-        <v>177</v>
-      </c>
       <c r="D43" s="0" t="n">
-        <v>49.8</v>
+        <v>46.47</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>60.7</v>
+        <v>39.99</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
-        <v>20</v>
+      <c r="A44" s="0" t="n">
+        <v>65476</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>348</v>
+        <v>280</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>51.7</v>
+        <v>49.52</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>53.5</v>
+        <v>45.86</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="n">
-        <v>65716</v>
+        <v>65475</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>247</v>
+        <v>335</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>112</v>
+        <v>162</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>34.9</v>
+        <v>54.75</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>27.8</v>
+        <v>47.22</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="n">
-        <v>65717</v>
+      <c r="A46" s="0" t="s">
+        <v>23</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>198</v>
+        <v>355</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>97</v>
+        <v>179</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>32</v>
+        <v>57.39</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>24.3</v>
+        <v>51.79</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
-        <v>21</v>
+      <c r="A47" s="0" t="n">
+        <v>65474</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>358</v>
+        <v>150</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>160</v>
+        <v>84</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>50.1</v>
+        <v>27.38</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>46.4</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B48" s="0" t="n">
-        <v>365</v>
-      </c>
-      <c r="C48" s="0" t="n">
-        <v>169</v>
-      </c>
-      <c r="D48" s="0" t="n">
-        <v>56.1</v>
-      </c>
-      <c r="E48" s="0" t="n">
-        <v>45.2</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="n">
-        <v>65744</v>
-      </c>
-      <c r="B49" s="0" t="n">
-        <v>191</v>
-      </c>
-      <c r="C49" s="0" t="n">
-        <v>82</v>
-      </c>
-      <c r="D49" s="0" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="E49" s="0" t="n">
-        <v>24.7</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="n">
-        <v>65747</v>
-      </c>
-      <c r="B50" s="0" t="n">
-        <v>206</v>
-      </c>
-      <c r="C50" s="0" t="n">
-        <v>96</v>
-      </c>
-      <c r="D50" s="0" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="E50" s="0" t="n">
-        <v>27.2</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B51" s="0" t="n">
-        <v>379</v>
-      </c>
-      <c r="C51" s="0" t="n">
-        <v>171</v>
-      </c>
-      <c r="D51" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="E51" s="0" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="n">
-        <v>65766</v>
-      </c>
-      <c r="B52" s="0" t="n">
-        <v>255</v>
-      </c>
-      <c r="C52" s="0" t="n">
-        <v>111</v>
-      </c>
-      <c r="D52" s="0" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="E52" s="0" t="n">
-        <v>35.9</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B53" s="0" t="n">
-        <v>362</v>
-      </c>
-      <c r="C53" s="0" t="n">
-        <v>154</v>
-      </c>
-      <c r="D53" s="0" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="E53" s="0" t="n">
-        <v>50.7</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="n">
-        <v>65774</v>
-      </c>
-      <c r="B54" s="0" t="n">
-        <v>229</v>
-      </c>
-      <c r="C54" s="0" t="n">
-        <v>103</v>
-      </c>
-      <c r="D54" s="0" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="E54" s="0" t="n">
-        <v>33.9</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="n">
-        <v>65775</v>
-      </c>
-      <c r="B55" s="0" t="n">
-        <v>197</v>
-      </c>
-      <c r="C55" s="0" t="n">
-        <v>88</v>
-      </c>
-      <c r="D55" s="0" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="E55" s="0" t="n">
-        <v>25.3</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="n">
-        <v>65790</v>
-      </c>
-      <c r="B56" s="0" t="n">
-        <v>301</v>
-      </c>
-      <c r="C56" s="0" t="n">
-        <v>156</v>
-      </c>
-      <c r="D56" s="0" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="E56" s="0" t="n">
-        <v>43.1</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B57" s="0" t="n">
-        <v>172</v>
-      </c>
-      <c r="C57" s="0" t="n">
-        <v>83</v>
-      </c>
-      <c r="D57" s="0" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="E57" s="0" t="n">
-        <v>24.8</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B58" s="0" t="n">
-        <v>202</v>
-      </c>
-      <c r="C58" s="0" t="n">
-        <v>98</v>
-      </c>
-      <c r="D58" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="E58" s="0" t="n">
-        <v>26.3</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B59" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="C59" s="0" t="n">
-        <v>92</v>
-      </c>
-      <c r="D59" s="0" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="E59" s="0" t="n">
-        <v>25.8</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B60" s="0" t="n">
-        <v>214</v>
-      </c>
-      <c r="C60" s="0" t="n">
-        <v>94</v>
-      </c>
-      <c r="D60" s="0" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="E60" s="0" t="n">
-        <v>25.6</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B61" s="0" t="n">
-        <v>182</v>
-      </c>
-      <c r="C61" s="0" t="n">
-        <v>85</v>
-      </c>
-      <c r="D61" s="0" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="E61" s="0" t="n">
-        <v>25.2</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B62" s="0" t="n">
-        <v>354</v>
-      </c>
-      <c r="C62" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="D62" s="0" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="E62" s="0" t="n">
-        <v>46.5</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B63" s="0" t="n">
-        <v>371</v>
-      </c>
-      <c r="C63" s="0" t="n">
-        <v>183</v>
-      </c>
-      <c r="D63" s="0" t="n">
-        <v>58.4</v>
-      </c>
-      <c r="E63" s="0" t="n">
-        <v>45.6</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B64" s="0" t="n">
-        <v>365</v>
-      </c>
-      <c r="C64" s="0" t="n">
-        <v>172</v>
-      </c>
-      <c r="D64" s="0" t="n">
-        <v>55</v>
-      </c>
-      <c r="E64" s="0" t="n">
-        <v>56.9</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B65" s="0" t="n">
-        <v>374</v>
-      </c>
-      <c r="C65" s="0" t="n">
-        <v>173</v>
-      </c>
-      <c r="D65" s="0" t="n">
-        <v>51.4</v>
-      </c>
-      <c r="E65" s="0" t="n">
-        <v>55.6</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B66" s="0" t="n">
-        <v>353</v>
-      </c>
-      <c r="C66" s="0" t="n">
-        <v>164</v>
-      </c>
-      <c r="D66" s="0" t="n">
-        <v>53.2</v>
-      </c>
-      <c r="E66" s="0" t="n">
-        <v>44.2</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B67" s="0" t="n">
-        <v>323</v>
-      </c>
-      <c r="C67" s="0" t="n">
-        <v>171</v>
-      </c>
-      <c r="D67" s="0" t="n">
-        <v>55.5</v>
-      </c>
-      <c r="E67" s="0" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B68" s="0" t="n">
-        <v>372</v>
-      </c>
-      <c r="C68" s="0" t="n">
-        <v>168</v>
-      </c>
-      <c r="D68" s="0" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="E68" s="0" t="n">
-        <v>53.5</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B69" s="0" t="n">
-        <v>331</v>
-      </c>
-      <c r="C69" s="0" t="n">
-        <v>162</v>
-      </c>
-      <c r="D69" s="0" t="n">
-        <v>50.3</v>
-      </c>
-      <c r="E69" s="0" t="n">
-        <v>58.4</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B70" s="0" t="n">
-        <v>317</v>
-      </c>
-      <c r="C70" s="0" t="n">
-        <v>158</v>
-      </c>
-      <c r="D70" s="0" t="n">
-        <v>42.1</v>
-      </c>
-      <c r="E70" s="0" t="n">
-        <v>51.1</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B71" s="0" t="n">
-        <v>362</v>
-      </c>
-      <c r="C71" s="0" t="n">
-        <v>178</v>
-      </c>
-      <c r="D71" s="0" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="E71" s="0" t="n">
-        <v>58.7</v>
+        <v>23.04</v>
       </c>
     </row>
   </sheetData>
@@ -2348,20 +1952,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1:E1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.54655870445344"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.44897959183673"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
@@ -2377,797 +1981,1193 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>37</v>
+      <c r="A2" s="0" t="n">
+        <v>681221</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>250</v>
+        <v>217</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>31.35</v>
+        <v>33.2</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>30.59</v>
+        <v>36.2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>165</v>
+        <v>355</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>111</v>
+        <v>162</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>35.13</v>
+        <v>53.1</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>30.56</v>
+        <v>43.6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>39</v>
+      <c r="A4" s="0" t="n">
+        <v>65559</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>355</v>
+        <v>332</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>56.08</v>
+        <v>45.2</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>52.56</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>40</v>
+        <v>48.9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>41</v>
+      <c r="A5" s="0" t="n">
+        <v>65574</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>38.19</v>
+        <v>42.5</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>35.85</v>
+        <v>32.8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>42</v>
+      <c r="A6" s="0" t="n">
+        <v>65575</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>155</v>
+        <v>243</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>21.71</v>
+        <v>35.9</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>21.6</v>
+        <v>29.7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>43</v>
+      <c r="A7" s="0" t="n">
+        <v>65576</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>156</v>
+        <v>224</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>28.31</v>
+        <v>33.7</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>23.55</v>
+        <v>28.1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
-        <v>65243</v>
+        <v>665577</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>353</v>
+        <v>190</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>165</v>
+        <v>97</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>54.34</v>
+        <v>30.2</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>50.39</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>40</v>
+        <v>26.6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
-        <v>68536</v>
+        <v>65578</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>375</v>
+        <v>207</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>185</v>
+        <v>99</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>63.28</v>
+        <v>31.7</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>55.19</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>40</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
-        <v>65242</v>
+        <v>65579</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>337</v>
+        <v>187</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>178</v>
+        <v>86</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>58.53</v>
+        <v>26.4</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>52.12</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>40</v>
+        <v>23.9</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>44</v>
+      <c r="A11" s="0" t="n">
+        <v>65580</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>28.48</v>
+        <v>26.3</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>25.51</v>
+        <v>24.2</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>45</v>
+      <c r="A12" s="0" t="n">
+        <v>65581</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>260</v>
+        <v>170</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>42.95</v>
+        <v>27.6</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>35.02</v>
+        <v>25.4</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>46</v>
+      <c r="A13" s="0" t="n">
+        <v>65582</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>362</v>
+        <v>188</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>160</v>
+        <v>82</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>56.41</v>
+        <v>26.7</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>47.16</v>
+        <v>23.7</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>47</v>
+      <c r="A14" s="0" t="n">
+        <v>65583</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>257</v>
+        <v>193</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>41.22</v>
+        <v>28.4</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>32.65</v>
+        <v>26.6</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>48</v>
+      <c r="A15" s="0" t="n">
+        <v>65584</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>330</v>
+        <v>209</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>153</v>
+        <v>100</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>52.78</v>
+        <v>33.2</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>43.88</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>49</v>
+      <c r="A16" s="0" t="n">
+        <v>65585</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="C16" s="0" t="n">
+        <v>103</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>27.2</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>65586</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>222</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>27.9</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>65587</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>215</v>
+      </c>
+      <c r="C18" s="0" t="n">
         <v>97</v>
       </c>
-      <c r="D16" s="0" t="n">
-        <v>31.91</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>27.54</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>182</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>104</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>34.47</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>29.01</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="0" t="n">
-        <v>186</v>
-      </c>
-      <c r="C18" s="0" t="n">
-        <v>101</v>
-      </c>
       <c r="D18" s="0" t="n">
-        <v>33.69</v>
+        <v>31.2</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>28.61</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>52</v>
+      <c r="A19" s="0" t="n">
+        <v>65588</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>164</v>
+        <v>203</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>29.83</v>
+        <v>30.2</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>24.88</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>53</v>
+      <c r="A20" s="0" t="n">
+        <v>65590</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>168</v>
+        <v>211</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>28.71</v>
+        <v>31.3</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>24.23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>54</v>
+      <c r="A21" s="0" t="n">
+        <v>65591</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>165</v>
+        <v>205</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>29.86</v>
+        <v>29.8</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>25.83</v>
+        <v>24.9</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
-        <v>65359</v>
+        <v>65702</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>165</v>
+        <v>208</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>34.61</v>
+        <v>34.8</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>29.82</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
-        <v>65356</v>
+        <v>65596</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>172</v>
+        <v>217</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>31.43</v>
+        <v>30.1</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>27.97</v>
+        <v>23.7</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
-        <v>65340</v>
+      <c r="A24" s="0" t="s">
+        <v>26</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>209</v>
+        <v>355</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>98</v>
+        <v>173</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>34.2</v>
+        <v>59.2</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>26.67</v>
+        <v>41.5</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
-        <v>65339</v>
+      <c r="A25" s="0" t="s">
+        <v>27</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>212</v>
+        <v>360</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>106</v>
+        <v>168</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>33.96</v>
+        <v>63.3</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>28.63</v>
+        <v>50.9</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
-        <v>65341</v>
+      <c r="A26" s="0" t="s">
+        <v>28</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>180</v>
+        <v>365</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>84</v>
+        <v>178</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>27.41</v>
+        <v>51.9</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>23.59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
-        <v>65343</v>
+      <c r="A27" s="0" t="s">
+        <v>29</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>164</v>
+        <v>367</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>94</v>
+        <v>185</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>29.08</v>
+        <v>63</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>27.05</v>
+        <v>55.8</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
-        <v>65344</v>
+      <c r="A28" s="0" t="s">
+        <v>30</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>175</v>
+        <v>328</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>90</v>
+        <v>161</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>27.34</v>
+        <v>54.5</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>24.75</v>
+        <v>46.7</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
-        <v>65345</v>
+        <v>65650</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>181</v>
+        <v>280</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>30.34</v>
+        <v>44.2</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>25.87</v>
+        <v>35.1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
-        <v>65329</v>
+        <v>65652</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>265</v>
+        <v>203</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>42.99</v>
+        <v>33.1</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>37.41</v>
+        <v>28.4</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
-        <v>65330</v>
+        <v>65653</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>180</v>
+        <v>214</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>26.37</v>
+        <v>30.3</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>24.95</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
-        <v>65331</v>
+        <v>65654</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>30.19</v>
+        <v>25.4</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>26.75</v>
+        <v>27.2</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
-        <v>65333</v>
+        <v>65655</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>30.17</v>
+        <v>25.4</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>39.21</v>
+        <v>26.9</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
-        <v>65334</v>
+        <v>65658</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>155</v>
+        <v>202</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>29.41</v>
+        <v>27.3</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>26.9</v>
+        <v>22.6</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
-        <v>65336</v>
+      <c r="A35" s="0" t="s">
+        <v>31</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>169</v>
+        <v>395</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>91</v>
+        <v>178</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>28.7</v>
+        <v>60.1</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>26.54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
-        <v>65335</v>
+      <c r="A36" s="0" t="s">
+        <v>32</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>158</v>
+        <v>352</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>78</v>
+        <v>171</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>24.18</v>
+        <v>54.7</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>23.24</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
-        <v>65350</v>
+      <c r="A37" s="0" t="s">
+        <v>33</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>150</v>
+        <v>335</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>94</v>
+        <v>151</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>3059</v>
+        <v>47</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>27.24</v>
+        <v>48.4</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
-        <v>65481</v>
+      <c r="A38" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>160</v>
+        <v>315</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>91</v>
+        <v>156</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>29.81</v>
+        <v>43.6</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>25.9</v>
+        <v>49.5</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
-        <v>65482</v>
+      <c r="A39" s="0" t="s">
+        <v>35</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>155</v>
+        <v>308</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>91</v>
+        <v>137</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>28.87</v>
+        <v>36.4</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>25.4</v>
+        <v>46.5</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
-        <v>65483</v>
+      <c r="A40" s="0" t="s">
+        <v>36</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>165</v>
+        <v>266</v>
       </c>
       <c r="C40" s="0" t="n">
+        <v>121</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>234</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="C42" s="0" t="n">
         <v>92</v>
       </c>
-      <c r="D40" s="0" t="n">
-        <v>30.38</v>
-      </c>
-      <c r="E40" s="0" t="n">
-        <v>25.6</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
-        <v>65485</v>
-      </c>
-      <c r="B41" s="0" t="n">
-        <v>184</v>
-      </c>
-      <c r="C41" s="0" t="n">
-        <v>108</v>
-      </c>
-      <c r="D41" s="0" t="n">
-        <v>36</v>
-      </c>
-      <c r="E41" s="0" t="n">
-        <v>30.73</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
-        <v>65478</v>
-      </c>
-      <c r="B42" s="0" t="n">
-        <v>275</v>
-      </c>
-      <c r="C42" s="0" t="n">
-        <v>129</v>
-      </c>
       <c r="D42" s="0" t="n">
-        <v>41.61</v>
+        <v>25.2</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>35</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
-        <v>65479</v>
+      <c r="A43" s="0" t="s">
+        <v>39</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>248</v>
+        <v>351</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>137</v>
+        <v>177</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>46.47</v>
+        <v>49.8</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>39.99</v>
+        <v>60.7</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
-        <v>65476</v>
+      <c r="A44" s="0" t="s">
+        <v>40</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>280</v>
+        <v>348</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>49.52</v>
+        <v>51.7</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>45.86</v>
+        <v>53.5</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="n">
-        <v>65475</v>
+        <v>65716</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>335</v>
+        <v>247</v>
       </c>
       <c r="C45" s="0" t="n">
+        <v>112</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="n">
+        <v>65717</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>198</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>97</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>24.3</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>358</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>50.1</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>46.4</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>365</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>169</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>45.2</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="n">
+        <v>65744</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>191</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>24.7</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="n">
+        <v>65747</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>206</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>27.2</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>379</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>171</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="n">
+        <v>65766</v>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>111</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>35.9</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B53" s="0" t="n">
+        <v>362</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>154</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <v>50.7</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="n">
+        <v>65774</v>
+      </c>
+      <c r="B54" s="0" t="n">
+        <v>229</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>103</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>33.9</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="n">
+        <v>65775</v>
+      </c>
+      <c r="B55" s="0" t="n">
+        <v>197</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="n">
+        <v>65790</v>
+      </c>
+      <c r="B56" s="0" t="n">
+        <v>301</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>156</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>43.1</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B57" s="0" t="n">
+        <v>172</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>83</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>24.8</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B58" s="0" t="n">
+        <v>202</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="D58" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="E58" s="0" t="n">
+        <v>26.3</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B59" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="D59" s="0" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="E59" s="0" t="n">
+        <v>25.8</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B60" s="0" t="n">
+        <v>214</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>94</v>
+      </c>
+      <c r="D60" s="0" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="E60" s="0" t="n">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B61" s="0" t="n">
+        <v>182</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="D61" s="0" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E61" s="0" t="n">
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B62" s="0" t="n">
+        <v>354</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D62" s="0" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="E62" s="0" t="n">
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B63" s="0" t="n">
+        <v>371</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>183</v>
+      </c>
+      <c r="D63" s="0" t="n">
+        <v>58.4</v>
+      </c>
+      <c r="E63" s="0" t="n">
+        <v>45.6</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B64" s="0" t="n">
+        <v>365</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>172</v>
+      </c>
+      <c r="D64" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="E64" s="0" t="n">
+        <v>56.9</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B65" s="0" t="n">
+        <v>374</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>173</v>
+      </c>
+      <c r="D65" s="0" t="n">
+        <v>51.4</v>
+      </c>
+      <c r="E65" s="0" t="n">
+        <v>55.6</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B66" s="0" t="n">
+        <v>353</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>164</v>
+      </c>
+      <c r="D66" s="0" t="n">
+        <v>53.2</v>
+      </c>
+      <c r="E66" s="0" t="n">
+        <v>44.2</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B67" s="0" t="n">
+        <v>323</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>171</v>
+      </c>
+      <c r="D67" s="0" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="E67" s="0" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B68" s="0" t="n">
+        <v>372</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>168</v>
+      </c>
+      <c r="D68" s="0" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="E68" s="0" t="n">
+        <v>53.5</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B69" s="0" t="n">
+        <v>331</v>
+      </c>
+      <c r="C69" s="0" t="n">
         <v>162</v>
       </c>
-      <c r="D45" s="0" t="n">
-        <v>54.75</v>
-      </c>
-      <c r="E45" s="0" t="n">
-        <v>47.22</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+      <c r="D69" s="0" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="E69" s="0" t="n">
+        <v>58.4</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B70" s="0" t="n">
+        <v>317</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>158</v>
+      </c>
+      <c r="D70" s="0" t="n">
+        <v>42.1</v>
+      </c>
+      <c r="E70" s="0" t="n">
+        <v>51.1</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="B46" s="0" t="n">
-        <v>355</v>
-      </c>
-      <c r="C46" s="0" t="n">
-        <v>179</v>
-      </c>
-      <c r="D46" s="0" t="n">
-        <v>57.39</v>
-      </c>
-      <c r="E46" s="0" t="n">
-        <v>51.79</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="n">
-        <v>65474</v>
-      </c>
-      <c r="B47" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="C47" s="0" t="n">
-        <v>84</v>
-      </c>
-      <c r="D47" s="0" t="n">
-        <v>27.38</v>
-      </c>
-      <c r="E47" s="0" t="n">
-        <v>23.04</v>
+      <c r="B71" s="0" t="n">
+        <v>362</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>178</v>
+      </c>
+      <c r="D71" s="0" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="E71" s="0" t="n">
+        <v>58.7</v>
       </c>
     </row>
   </sheetData>
@@ -3186,889 +3186,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1:E1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.54655870445344"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>205</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>105</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>24.91</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>37.62</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>85</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>21.15</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>30.74</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="n">
-        <v>173</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>93</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>23.16</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>33.77</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="n">
-        <v>220</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>104</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>26.87</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>37.46</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>159</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>85</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>21.34</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>29.45</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="n">
-        <v>162</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>82</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>20.44</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>28.58</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="n">
-        <v>126</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>69</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>18.78</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>23.74</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>341</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>155</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>34.43</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>56.02</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="n">
-        <v>151</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>88</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>20.62</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>31.4</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>179</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>99</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>22.85</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>32.93</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>159</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>89</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>21.93</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>29.69</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
-        <v>64838</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>255</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>147</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>34.95</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>5093</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
-        <v>64819</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>303</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>162</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>37.64</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>55.43</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
-        <v>64820</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>279</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>138</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>49.89</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>295</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>153</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>52.32</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>322</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>161</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>37.19</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>53.95</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
-        <v>64805</v>
-      </c>
-      <c r="B18" s="0" t="n">
-        <v>231</v>
-      </c>
-      <c r="C18" s="0" t="n">
-        <v>102</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>23.74</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>36.28</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
-        <v>64804</v>
-      </c>
-      <c r="B19" s="0" t="n">
-        <v>280</v>
-      </c>
-      <c r="C19" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>37.28</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>53.57</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
-        <v>64808</v>
-      </c>
-      <c r="B20" s="0" t="n">
-        <v>155</v>
-      </c>
-      <c r="C20" s="0" t="n">
-        <v>84</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>21.55</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>30.54</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
-        <v>64807</v>
-      </c>
-      <c r="B21" s="0" t="n">
-        <v>162</v>
-      </c>
-      <c r="C21" s="0" t="n">
-        <v>88</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>91.75</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>32.66</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
-        <v>64793</v>
-      </c>
-      <c r="B22" s="0" t="n">
-        <v>152</v>
-      </c>
-      <c r="C22" s="0" t="n">
-        <v>99</v>
-      </c>
-      <c r="D22" s="0" t="n">
-        <v>23.65</v>
-      </c>
-      <c r="E22" s="0" t="n">
-        <v>32.31</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
-        <v>64791</v>
-      </c>
-      <c r="B23" s="0" t="n">
-        <v>164</v>
-      </c>
-      <c r="C23" s="0" t="n">
-        <v>94</v>
-      </c>
-      <c r="D23" s="0" t="n">
-        <v>23.18</v>
-      </c>
-      <c r="E23" s="0" t="n">
-        <v>33.33</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
-        <v>64790</v>
-      </c>
-      <c r="B24" s="0" t="n">
-        <v>223</v>
-      </c>
-      <c r="C24" s="0" t="n">
-        <v>97</v>
-      </c>
-      <c r="D24" s="0" t="n">
-        <v>22.34</v>
-      </c>
-      <c r="E24" s="0" t="n">
-        <v>35.11</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
-        <v>64787</v>
-      </c>
-      <c r="B25" s="0" t="n">
-        <v>305</v>
-      </c>
-      <c r="C25" s="0" t="n">
-        <v>176</v>
-      </c>
-      <c r="D25" s="0" t="n">
-        <v>43.18</v>
-      </c>
-      <c r="E25" s="0" t="n">
-        <v>62.47</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
-        <v>64779</v>
-      </c>
-      <c r="B26" s="0" t="n">
-        <v>155</v>
-      </c>
-      <c r="C26" s="0" t="n">
-        <v>84</v>
-      </c>
-      <c r="D26" s="0" t="n">
-        <v>19.97</v>
-      </c>
-      <c r="E26" s="0" t="n">
-        <v>30.79</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
-        <v>64775</v>
-      </c>
-      <c r="B27" s="0" t="n">
-        <v>315</v>
-      </c>
-      <c r="C27" s="0" t="n">
-        <v>152</v>
-      </c>
-      <c r="D27" s="0" t="n">
-        <v>34.31</v>
-      </c>
-      <c r="E27" s="0" t="n">
-        <v>55.72</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
-        <v>64764</v>
-      </c>
-      <c r="B28" s="0" t="n">
-        <v>322</v>
-      </c>
-      <c r="C28" s="0" t="n">
-        <v>158</v>
-      </c>
-      <c r="D28" s="0" t="n">
-        <v>38.6</v>
-      </c>
-      <c r="E28" s="0" t="n">
-        <v>56.36</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
-        <v>64770</v>
-      </c>
-      <c r="B29" s="0" t="n">
-        <v>168</v>
-      </c>
-      <c r="C29" s="0" t="n">
-        <v>92</v>
-      </c>
-      <c r="D29" s="0" t="n">
-        <v>20.74</v>
-      </c>
-      <c r="E29" s="0" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
-        <v>64759</v>
-      </c>
-      <c r="B30" s="0" t="n">
-        <v>323</v>
-      </c>
-      <c r="C30" s="0" t="n">
-        <v>158</v>
-      </c>
-      <c r="D30" s="0" t="n">
-        <v>37.37</v>
-      </c>
-      <c r="E30" s="0" t="n">
-        <v>55.79</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
-        <v>64761</v>
-      </c>
-      <c r="B31" s="0" t="n">
-        <v>192</v>
-      </c>
-      <c r="C31" s="0" t="n">
-        <v>105</v>
-      </c>
-      <c r="D31" s="0" t="n">
-        <v>24.75</v>
-      </c>
-      <c r="E31" s="0" t="n">
-        <v>37.17</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B32" s="0" t="n">
-        <v>306</v>
-      </c>
-      <c r="C32" s="0" t="n">
-        <v>151</v>
-      </c>
-      <c r="D32" s="0" t="n">
-        <v>39.15</v>
-      </c>
-      <c r="E32" s="0" t="n">
-        <v>53.45</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="0" t="n">
-        <v>322</v>
-      </c>
-      <c r="C33" s="0" t="n">
-        <v>158</v>
-      </c>
-      <c r="D33" s="0" t="n">
-        <v>35.62</v>
-      </c>
-      <c r="E33" s="0" t="n">
-        <v>54.48</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="0" t="n">
-        <v>302</v>
-      </c>
-      <c r="C34" s="0" t="n">
-        <v>130</v>
-      </c>
-      <c r="D34" s="0" t="n">
-        <v>31.87</v>
-      </c>
-      <c r="E34" s="0" t="n">
-        <v>48.15</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
-        <v>64730</v>
-      </c>
-      <c r="B35" s="0" t="n">
-        <v>196</v>
-      </c>
-      <c r="C35" s="0" t="n">
-        <v>97</v>
-      </c>
-      <c r="D35" s="0" t="n">
-        <v>22.19</v>
-      </c>
-      <c r="E35" s="0" t="n">
-        <v>33.69</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
-        <v>64734</v>
-      </c>
-      <c r="B36" s="0" t="n">
-        <v>137</v>
-      </c>
-      <c r="C36" s="0" t="n">
-        <v>71</v>
-      </c>
-      <c r="D36" s="0" t="n">
-        <v>17.58</v>
-      </c>
-      <c r="E36" s="0" t="n">
-        <v>24.29</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
-        <v>64731</v>
-      </c>
-      <c r="B37" s="0" t="n">
-        <v>157</v>
-      </c>
-      <c r="C37" s="0" t="n">
-        <v>86</v>
-      </c>
-      <c r="D37" s="0" t="n">
-        <v>20.79</v>
-      </c>
-      <c r="E37" s="0" t="n">
-        <v>30.35</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
-        <v>64725</v>
-      </c>
-      <c r="B38" s="0" t="n">
-        <v>241</v>
-      </c>
-      <c r="C38" s="0" t="n">
-        <v>124</v>
-      </c>
-      <c r="D38" s="0" t="n">
-        <v>28.21</v>
-      </c>
-      <c r="E38" s="0" t="n">
-        <v>45.96</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
-        <v>64719</v>
-      </c>
-      <c r="B39" s="0" t="n">
-        <v>334</v>
-      </c>
-      <c r="C39" s="0" t="n">
-        <v>163</v>
-      </c>
-      <c r="D39" s="0" t="n">
-        <v>35.76</v>
-      </c>
-      <c r="E39" s="0" t="n">
-        <v>57.92</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
-        <v>64698</v>
-      </c>
-      <c r="B40" s="0" t="n">
-        <v>151</v>
-      </c>
-      <c r="C40" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="D40" s="0" t="n">
-        <v>18.43</v>
-      </c>
-      <c r="E40" s="0" t="n">
-        <v>28.4</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
-        <v>64695</v>
-      </c>
-      <c r="B41" s="0" t="n">
-        <v>295</v>
-      </c>
-      <c r="C41" s="0" t="n">
-        <v>147</v>
-      </c>
-      <c r="D41" s="0" t="n">
-        <v>26.25</v>
-      </c>
-      <c r="E41" s="0" t="n">
-        <v>53.91</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="B42" s="0" t="n">
-        <v>186</v>
-      </c>
-      <c r="C42" s="0" t="n">
-        <v>94</v>
-      </c>
-      <c r="D42" s="0" t="n">
-        <v>23.97</v>
-      </c>
-      <c r="E42" s="0" t="n">
-        <v>30.18</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="B43" s="0" t="n">
-        <v>272</v>
-      </c>
-      <c r="C43" s="0" t="n">
-        <v>129</v>
-      </c>
-      <c r="D43" s="0" t="n">
-        <v>29.85</v>
-      </c>
-      <c r="E43" s="0" t="n">
-        <v>46.98</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="0" t="n">
-        <v>269</v>
-      </c>
-      <c r="C44" s="0" t="n">
-        <v>134</v>
-      </c>
-      <c r="D44" s="0" t="n">
-        <v>35.69</v>
-      </c>
-      <c r="E44" s="0" t="n">
-        <v>42.32</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="0" t="n">
-        <v>280</v>
-      </c>
-      <c r="C45" s="0" t="n">
-        <v>131</v>
-      </c>
-      <c r="D45" s="0" t="n">
-        <v>33.48</v>
-      </c>
-      <c r="E45" s="0" t="n">
-        <v>46.32</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B46" s="0" t="n">
-        <v>275</v>
-      </c>
-      <c r="C46" s="0" t="n">
-        <v>128</v>
-      </c>
-      <c r="D46" s="0" t="n">
-        <v>30.74</v>
-      </c>
-      <c r="E46" s="0" t="n">
-        <v>46.33</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="n">
-        <v>64650</v>
-      </c>
-      <c r="B47" s="0" t="n">
-        <v>167</v>
-      </c>
-      <c r="C47" s="0" t="n">
-        <v>92</v>
-      </c>
-      <c r="D47" s="0" t="n">
-        <v>21.82</v>
-      </c>
-      <c r="E47" s="0" t="n">
-        <v>31.53</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="n">
-        <v>64641</v>
-      </c>
-      <c r="B48" s="0" t="n">
-        <v>162</v>
-      </c>
-      <c r="C48" s="0" t="n">
-        <v>77</v>
-      </c>
-      <c r="D48" s="0" t="n">
-        <v>18.01</v>
-      </c>
-      <c r="E48" s="0" t="n">
-        <v>27.93</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="n">
-        <v>64572</v>
-      </c>
-      <c r="B49" s="0" t="n">
-        <v>142</v>
-      </c>
-      <c r="C49" s="0" t="n">
-        <v>64</v>
-      </c>
-      <c r="D49" s="0" t="n">
-        <v>15.34</v>
-      </c>
-      <c r="E49" s="0" t="n">
-        <v>21.41</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="n">
-        <v>64564</v>
-      </c>
-      <c r="B50" s="0" t="n">
-        <v>155</v>
-      </c>
-      <c r="C50" s="0" t="n">
-        <v>86</v>
-      </c>
-      <c r="D50" s="0" t="n">
-        <v>21.39</v>
-      </c>
-      <c r="E50" s="0" t="n">
-        <v>30.8</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="n">
-        <v>64551</v>
-      </c>
-      <c r="B51" s="0" t="n">
-        <v>199</v>
-      </c>
-      <c r="C51" s="0" t="n">
-        <v>105</v>
-      </c>
-      <c r="D51" s="0" t="n">
-        <v>25.04</v>
-      </c>
-      <c r="E51" s="0" t="n">
-        <v>37.32</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:I51"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1:E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.1943319838057"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.54655870445344"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.7908163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.44897959183673"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4085,15 +3212,15 @@
         <v>4</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>285</v>
@@ -4118,7 +3245,7 @@
     </row>
     <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>279</v>
@@ -4143,7 +3270,7 @@
     </row>
     <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>218</v>
@@ -4168,7 +3295,7 @@
     </row>
     <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>122</v>
@@ -4193,7 +3320,7 @@
     </row>
     <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>262</v>
@@ -4218,7 +3345,7 @@
     </row>
     <row r="7" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>241</v>
@@ -4243,7 +3370,7 @@
     </row>
     <row r="8" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>216</v>
@@ -4268,7 +3395,7 @@
     </row>
     <row r="9" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>221</v>
@@ -4293,7 +3420,7 @@
     </row>
     <row r="10" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>188</v>
@@ -4318,7 +3445,7 @@
     </row>
     <row r="11" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>198</v>
@@ -4343,7 +3470,7 @@
     </row>
     <row r="12" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>180</v>
@@ -4368,7 +3495,7 @@
     </row>
     <row r="13" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>173</v>
@@ -4393,7 +3520,7 @@
     </row>
     <row r="14" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>140</v>
@@ -4418,7 +3545,7 @@
     </row>
     <row r="15" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>119</v>
@@ -4443,7 +3570,7 @@
     </row>
     <row r="16" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>142</v>
@@ -4468,7 +3595,7 @@
     </row>
     <row r="17" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>127</v>
@@ -4493,7 +3620,7 @@
     </row>
     <row r="18" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>140</v>
@@ -4518,7 +3645,7 @@
     </row>
     <row r="19" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>132</v>
@@ -4543,7 +3670,7 @@
     </row>
     <row r="20" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>261</v>
@@ -4568,7 +3695,7 @@
     </row>
     <row r="21" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>208</v>
@@ -4993,7 +4120,7 @@
     </row>
     <row r="38" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>249</v>
@@ -5018,7 +4145,7 @@
     </row>
     <row r="39" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>284</v>
@@ -5043,7 +4170,7 @@
     </row>
     <row r="40" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>287</v>
@@ -5143,7 +4270,7 @@
     </row>
     <row r="44" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>284</v>
@@ -5168,7 +4295,7 @@
     </row>
     <row r="45" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>152</v>
@@ -5193,7 +4320,7 @@
     </row>
     <row r="46" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>246</v>
@@ -5351,4 +4478,877 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F51"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.44897959183673"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>205</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>24.91</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>37.62</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>21.15</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>30.74</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="n">
+        <v>173</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>23.16</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>33.77</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="n">
+        <v>220</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>104</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>26.87</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>37.46</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>159</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>21.34</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>29.45</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="n">
+        <v>162</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>20.44</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>28.58</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="n">
+        <v>126</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>18.78</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>23.74</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>341</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>155</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>34.43</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>56.02</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="n">
+        <v>151</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>20.62</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>31.4</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>179</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>22.85</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>32.93</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>159</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>89</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>21.93</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>29.69</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>64838</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>147</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>34.95</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>5093</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>64819</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>303</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>162</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>37.64</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>55.43</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>64820</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>279</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>138</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>49.89</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>295</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>153</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>52.32</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>322</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>161</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>37.19</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>53.95</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>64805</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>231</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>102</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>23.74</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>36.28</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>64804</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>280</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>37.28</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>53.57</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>64808</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>155</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>21.55</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>30.54</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>64807</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>162</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>91.75</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>32.66</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>64793</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>152</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>23.65</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>32.31</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>64791</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>164</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>94</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>23.18</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>33.33</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>64790</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>223</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>97</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>22.34</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>35.11</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>64787</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>305</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>176</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>43.18</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>62.47</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>64779</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>155</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>19.97</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>30.79</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>64775</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>315</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>152</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>34.31</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>55.72</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>64764</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>322</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>158</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>56.36</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>64770</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>168</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>20.74</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>64759</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>323</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>158</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>37.37</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>55.79</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>64761</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>192</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>24.75</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>37.17</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>306</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>151</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>39.15</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>53.45</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="0" t="n">
+        <v>322</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>158</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>35.62</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>54.48</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="0" t="n">
+        <v>302</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>31.87</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>48.15</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>64730</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>196</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>97</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>22.19</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>33.69</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>64734</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>137</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>17.58</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>24.29</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>64731</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>157</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>20.79</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>30.35</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>64725</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>241</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>124</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>28.21</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>45.96</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>64719</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>334</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>163</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>35.76</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>57.92</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>64698</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>151</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>18.43</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>28.4</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>64695</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>295</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>147</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>26.25</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>53.91</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>186</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>94</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>23.97</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>30.18</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>272</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>129</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>29.85</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>46.98</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="0" t="n">
+        <v>269</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>134</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>35.69</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>42.32</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="0" t="n">
+        <v>280</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>131</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>33.48</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>46.32</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>275</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>128</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>30.74</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>46.33</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="n">
+        <v>64650</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>167</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>21.82</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>31.53</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="n">
+        <v>64641</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>162</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>18.01</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>27.93</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="n">
+        <v>64572</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>142</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>15.34</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>21.41</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="n">
+        <v>64564</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>155</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>21.39</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>30.8</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="n">
+        <v>64551</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>199</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>25.04</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>37.32</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
 </file>